--- a/doc/6.Worker的原理剖析.xlsx
+++ b/doc/6.Worker的原理剖析.xlsx
@@ -2228,7 +2228,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/6.Worker的原理剖析.xlsx
+++ b/doc/6.Worker的原理剖析.xlsx
@@ -143,15 +143,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -160,7 +160,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="542925" y="428625"/>
+          <a:off x="609600" y="1714500"/>
           <a:ext cx="1162050" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -307,7 +307,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>内部启动的一个线程</a:t>
+            <a:t>内部启动一个线程</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -369,7 +369,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>内部启动的一个线程</a:t>
+            <a:t>内部启动一个线程</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -384,8 +384,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -397,7 +397,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3600450" y="1752600"/>
-          <a:ext cx="1057275" cy="257175"/>
+          <a:ext cx="1304925" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -433,9 +433,12 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>LaunchDriver</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>LaunchDriver </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>消息</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -444,13 +447,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:colOff>209549</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -461,8 +464,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4991101" y="1752600"/>
-          <a:ext cx="1200150" cy="238125"/>
+          <a:off x="4991100" y="1752600"/>
+          <a:ext cx="1390649" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -500,7 +503,10 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>LaunchExecutor</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>消息</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -508,16 +514,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -526,8 +532,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2571750" y="3429000"/>
-          <a:ext cx="1543050" cy="371475"/>
+          <a:off x="3381375" y="3505200"/>
+          <a:ext cx="1543050" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -564,6 +570,47 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>的工作目录</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>下载所需的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>jar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>包</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -571,16 +618,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -589,8 +636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2200275" y="4371974"/>
-          <a:ext cx="1657350" cy="752475"/>
+          <a:off x="3143250" y="4657724"/>
+          <a:ext cx="2019300" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -621,7 +668,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Driver</a:t>
+            <a:t>Driver(DriverRunner)</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -647,16 +694,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -665,7 +712,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1971675" y="5324475"/>
+          <a:off x="3438525" y="6334125"/>
           <a:ext cx="1428750" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -899,15 +946,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -918,9 +965,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1704975" y="695325"/>
-          <a:ext cx="1714500" cy="1281113"/>
+        <a:xfrm flipV="1">
+          <a:off x="1771650" y="1976438"/>
+          <a:ext cx="1647825" cy="4762"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -948,8 +995,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -957,7 +1004,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>52388</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -969,8 +1016,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3343275" y="2743200"/>
-          <a:ext cx="823913" cy="685800"/>
+          <a:off x="4152900" y="2743200"/>
+          <a:ext cx="14288" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -998,16 +1045,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1018,9 +1065,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3028950" y="3800475"/>
-          <a:ext cx="314325" cy="571499"/>
+        <a:xfrm>
+          <a:off x="4152900" y="3990975"/>
+          <a:ext cx="0" cy="666749"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1048,16 +1095,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1068,9 +1115,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2686050" y="5124449"/>
-          <a:ext cx="342900" cy="200026"/>
+        <a:xfrm>
+          <a:off x="4152900" y="5410199"/>
+          <a:ext cx="0" cy="923926"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1098,16 +1145,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1118,9 +1165,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3400425" y="5734050"/>
-          <a:ext cx="3438525" cy="9525"/>
+        <a:xfrm flipH="1">
+          <a:off x="4867275" y="5743575"/>
+          <a:ext cx="1971675" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1298,16 +1345,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1316,8 +1363,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3743324" y="5905500"/>
-          <a:ext cx="2905125" cy="266700"/>
+          <a:off x="5076824" y="6334125"/>
+          <a:ext cx="2905125" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1375,15 +1422,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1392,7 +1439,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="1790700"/>
+          <a:off x="209550" y="2486025"/>
           <a:ext cx="3095625" cy="1047749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1428,51 +1475,119 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Worker</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>启动的一个基本原理，最核心要清楚和掌握，就是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>启动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Driver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的一个基本原理，最核心要清楚和掌握，就是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Worker</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>内部会启动一个线程，这个线程可以理解为就是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>DriverRunner</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>。然后</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>DriverRunner</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>会去负责启动</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>内部会启动一个线程，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DriverRunner.start()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>启动的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>这个线程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>。然后这个线程会去负责启动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Driver</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>进程，并在之后对</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Driver</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>进程进行管理。</a:t>
           </a:r>
         </a:p>
@@ -1482,16 +1597,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1500,8 +1615,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2038350" y="381000"/>
-          <a:ext cx="2200275" cy="523875"/>
+          <a:off x="1019175" y="885825"/>
+          <a:ext cx="2200275" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1536,6 +1651,26 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Driver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>注册完后，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Master</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>要求</a:t>
           </a:r>
@@ -1629,59 +1764,115 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Executor</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>的启动和</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Driver</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>的原理差不多，即</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Worker</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>内部会启动一个线程</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>ExecutorRunner</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>，</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>ExecutorRunner</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>会负责去启动</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Executor</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>进程，并在后面对</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Executor</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>进程进行管理</a:t>
           </a:r>
         </a:p>
@@ -1699,8 +1890,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1710,7 +1901,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10467975" y="1457325"/>
-          <a:ext cx="6467475" cy="4305300"/>
+          <a:ext cx="6467475" cy="1647825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1933,6 +2124,142 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="矩形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400051" y="6391274"/>
+          <a:ext cx="2343150" cy="704851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>最后不管</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Driver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是否启动成功，都会给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>worker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发送一条</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Driver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>状态改变的消息：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" i="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>DriverStateChanged</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接箭头连接符 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="41" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2743201" y="6743700"/>
+          <a:ext cx="695324" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2228,7 +2555,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/6.Worker的原理剖析.xlsx
+++ b/doc/6.Worker的原理剖析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,15 +317,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -334,7 +334,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4981575" y="2085974"/>
+          <a:off x="5076825" y="2076449"/>
           <a:ext cx="1276350" cy="657226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -359,18 +359,62 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>ExecutorRunner</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>内部启动一个线程</a:t>
-          </a:r>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Executor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的工作目录</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -751,15 +795,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -768,8 +812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="3438525"/>
-          <a:ext cx="1724025" cy="352425"/>
+          <a:off x="6600825" y="2362200"/>
+          <a:ext cx="1704975" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -793,19 +837,38 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>创建</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Executor</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的工作目录</a:t>
-          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ExecutorRunner</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内部启动一个线程</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -814,13 +877,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -831,7 +894,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6610350" y="4400550"/>
+          <a:off x="6619875" y="4400550"/>
           <a:ext cx="1666875" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -890,15 +953,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -907,7 +970,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="5429250"/>
+          <a:off x="6667500" y="5534025"/>
           <a:ext cx="1571625" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1145,114 +1208,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="1"/>
-          <a:endCxn id="10" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4867275" y="5743575"/>
-          <a:ext cx="1971675" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="11" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5619750" y="2743200"/>
-          <a:ext cx="1452563" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>585788</xdr:colOff>
+      <xdr:colOff>595313</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1266,8 +1229,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7072313" y="3790950"/>
-          <a:ext cx="371475" cy="609600"/>
+          <a:off x="7453313" y="3124200"/>
+          <a:ext cx="0" cy="1276350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1278,13 +1241,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1296,15 +1259,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>585788</xdr:colOff>
+      <xdr:colOff>595313</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1316,8 +1279,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7443788" y="5086350"/>
-          <a:ext cx="180975" cy="342900"/>
+          <a:off x="7453313" y="5086350"/>
+          <a:ext cx="0" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1328,13 +1291,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1346,15 +1309,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1363,8 +1326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5076824" y="6334125"/>
-          <a:ext cx="2905125" cy="276225"/>
+          <a:off x="5029199" y="6219825"/>
+          <a:ext cx="2266951" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1404,7 +1367,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>找到对应的</a:t>
+            <a:t>启动后找到对应的</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -1412,7 +1375,14 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>，去反向注册自己</a:t>
+            <a:t>，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>去反向注册自己</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1422,15 +1392,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1439,8 +1409,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="2486025"/>
-          <a:ext cx="3095625" cy="1047749"/>
+          <a:off x="76200" y="2486024"/>
+          <a:ext cx="2828925" cy="3552825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1590,6 +1560,433 @@
             </a:rPr>
             <a:t>进程进行管理。</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>worker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>启动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Driver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的总结：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>driver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的启动最初由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的调度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>schedule</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>发出，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>发送消息给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>worker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>worker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>调用启动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>driver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>实际由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DriverRunner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>执行，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DriverRunner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>启动一个线程来运行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>driver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，运行完成后将状态变更发送消息给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>worker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>worker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将消息传递给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>做一些清除处理后再次执行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>schedule</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法。到此为止一个循环结束。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1710,16 +2107,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1728,7 +2125,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6724650" y="1695450"/>
+          <a:off x="7096125" y="333375"/>
           <a:ext cx="2905125" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1882,15 +2279,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1900,7 +2297,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10467975" y="1457325"/>
+          <a:off x="9496425" y="2314575"/>
           <a:ext cx="6467475" cy="1647825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2254,6 +2651,109 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="肘形连接符 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6353175" y="2362200"/>
+          <a:ext cx="1100138" cy="42862"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11255"/>
+            <a:gd name="adj2" fmla="val 1300016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>595314</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="肘形连接符 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5869782" y="5160168"/>
+          <a:ext cx="581025" cy="2586038"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2555,7 +3055,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
